--- a/SIAE/SNW/Reportes/Anexo2InventarioPMP.xlsx
+++ b/SIAE/SNW/Reportes/Anexo2InventarioPMP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin Salinas\Desktop\Proyectos\ProyectoSIAE\SIAE\SNW\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8F2F55E4-F621-48A8-8AD9-4160116F74B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="882"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11 Serie logística" sheetId="36" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27">
     <font>
       <sz val="10"/>
@@ -906,7 +907,7 @@
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cálculo 2" xfId="44"/>
+    <cellStyle name="Cálculo 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="22" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Encabezado 1" xfId="38" builtinId="16" customBuiltin="1"/>
@@ -918,24 +919,24 @@
     <cellStyle name="Énfasis5" xfId="28" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="29" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Entrada 2" xfId="45"/>
+    <cellStyle name="Entrada 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Notas" xfId="33" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Notas 2" xfId="42"/>
-    <cellStyle name="Notas 2 2" xfId="46"/>
-    <cellStyle name="Notas 3" xfId="47"/>
+    <cellStyle name="Notas 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Notas 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Notas 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Salida" xfId="34" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Salida 2" xfId="48"/>
+    <cellStyle name="Salida 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Texto de advertencia" xfId="35" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="36" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="49"/>
+    <cellStyle name="Total 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,206 +1061,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1282428</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>110271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>148086</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2575902" y="5056644"/>
-          <a:ext cx="3276670" cy="4347393"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2418510</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>51301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228623</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>156024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3178370" y="8976975"/>
-          <a:ext cx="2294354" cy="3047841"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1037359</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2382115" y="11692371"/>
-          <a:ext cx="3474028" cy="4639540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1632857</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>395811</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390969" y="2313214"/>
-          <a:ext cx="3486577" cy="2954694"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1665,14 +1466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2915,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -2930,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
